--- a/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
+++ b/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>testcase</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Verify the product title</t>
   </si>
   <si>
-    <t>BENADRYL® Allergy ULTRATABS® Tablets with Allergy Relief and Diphenhydramine HCI 25 mg</t>
+    <t>BENADRYLÂ® Allergy ULTRATABSÂ® Tablets with Allergy Relief and Diphenhydramine HCI 25 mg</t>
   </si>
   <si>
     <t>Verify the product rating</t>
@@ -47,13 +47,82 @@
     <t>Verify the "Write a Review" button</t>
   </si>
   <si>
-    <t xml:space="preserve">Write a review </t>
+    <t>Write a review</t>
   </si>
   <si>
     <t>Verify the "Buy Now" button</t>
   </si>
   <si>
     <t>BUY NOW</t>
+  </si>
+  <si>
+    <t>jumpToHeading</t>
+  </si>
+  <si>
+    <t>sectionHeading</t>
+  </si>
+  <si>
+    <t>Verify jumping to Overview</t>
+  </si>
+  <si>
+    <t>OVERVIEW</t>
+  </si>
+  <si>
+    <t>Product Overview</t>
+  </si>
+  <si>
+    <t>Verify jumping to Directions</t>
+  </si>
+  <si>
+    <t>DIRECTIONS</t>
+  </si>
+  <si>
+    <t>Directions</t>
+  </si>
+  <si>
+    <t>Verify jumping to Ingredients</t>
+  </si>
+  <si>
+    <t>INGREDIENTS</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Verify jumping to Used For</t>
+  </si>
+  <si>
+    <t>USED FOR</t>
+  </si>
+  <si>
+    <t>Used For</t>
+  </si>
+  <si>
+    <t>Verify jumping to Warnings</t>
+  </si>
+  <si>
+    <t>WARNINGS</t>
+  </si>
+  <si>
+    <t>Warnings</t>
+  </si>
+  <si>
+    <t>Verify jumping to FAQs</t>
+  </si>
+  <si>
+    <t>FAQS</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions</t>
+  </si>
+  <si>
+    <t>Verify jumping to Review</t>
+  </si>
+  <si>
+    <t>REVIEWS</t>
+  </si>
+  <si>
+    <t>Reviews</t>
   </si>
 </sst>
 </file>
@@ -667,16 +736,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1000,22 +1063,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.8857142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.2857142857143" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.2190476190476" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="28.8857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2190476190476" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,31 +1088,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" ht="45" spans="1:3">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" ht="60" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1057,7 +1117,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1065,24 +1125,24 @@
       </c>
     </row>
     <row r="6" ht="30" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1095,20 +1155,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1176,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
+++ b/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12330" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="prodImg" sheetId="3" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="jumpToWarnings" sheetId="10" r:id="rId10"/>
     <sheet name="jumpToFAQs" sheetId="11" r:id="rId11"/>
     <sheet name="jumpToReviews" sheetId="12" r:id="rId12"/>
+    <sheet name="jumpTo" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>testcase</t>
   </si>
@@ -156,7 +157,13 @@
     <t>Frequently Asked Questions</t>
   </si>
   <si>
+    <t>Verify jumping to Reviews</t>
+  </si>
+  <si>
     <t>REVIEWS</t>
+  </si>
+  <si>
+    <t>Reviews</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1156,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1199,7 +1206,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1249,7 +1256,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1265,15 +1272,149 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:3">
+    <row r="2" ht="60" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="18.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1428,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +1594,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1503,7 +1644,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1553,7 +1694,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1603,7 +1744,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
+++ b/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="prodImg" sheetId="3" r:id="rId1"/>
@@ -12,21 +12,14 @@
     <sheet name="prodRating" sheetId="5" r:id="rId3"/>
     <sheet name="prodOverview" sheetId="6" r:id="rId4"/>
     <sheet name="prodPageBtns" sheetId="1" r:id="rId5"/>
-    <sheet name="jumpToOverview" sheetId="2" r:id="rId6"/>
-    <sheet name="jumpToDirections" sheetId="7" r:id="rId7"/>
-    <sheet name="jumpToIngredients" sheetId="8" r:id="rId8"/>
-    <sheet name="jumpToUsed" sheetId="9" r:id="rId9"/>
-    <sheet name="jumpToWarnings" sheetId="10" r:id="rId10"/>
-    <sheet name="jumpToFAQs" sheetId="11" r:id="rId11"/>
-    <sheet name="jumpToReviews" sheetId="12" r:id="rId12"/>
-    <sheet name="jumpTo" sheetId="13" r:id="rId13"/>
+    <sheet name="jumpTo" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>testcase</t>
   </si>
@@ -1150,279 +1143,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" ht="60" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
-    <col min="3" max="4" width="18.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="30" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="30" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="30" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" ht="30" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="30" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1591,17 +1311,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="4" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1632,154 +1352,88 @@
         <v>19</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="21.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:4">
-      <c r="A2" s="2" t="s">
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
+++ b/BenadrylAutomation/src/test/resources/TestData/ProdPageTestData.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12330" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="prodImg" sheetId="3" r:id="rId1"/>
-    <sheet name="prodTitle" sheetId="4" r:id="rId2"/>
-    <sheet name="prodRating" sheetId="5" r:id="rId3"/>
-    <sheet name="prodOverview" sheetId="6" r:id="rId4"/>
-    <sheet name="prodPageBtns" sheetId="1" r:id="rId5"/>
-    <sheet name="jumpTo" sheetId="13" r:id="rId6"/>
+    <sheet name="prodPage" sheetId="14" r:id="rId1"/>
+    <sheet name="prodImg" sheetId="3" r:id="rId2"/>
+    <sheet name="prodTitle" sheetId="4" r:id="rId3"/>
+    <sheet name="prodRating" sheetId="5" r:id="rId4"/>
+    <sheet name="prodOverview" sheetId="6" r:id="rId5"/>
+    <sheet name="prodPageBtns" sheetId="1" r:id="rId6"/>
+    <sheet name="jumpTo" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>testcase</t>
   </si>
@@ -27,13 +28,31 @@
     <t>execution</t>
   </si>
   <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>Verify the product page</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>benadryl-allergy-ultratabs-tablets</t>
+  </si>
+  <si>
     <t>Verify the product image</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>title</t>
   </si>
   <si>
     <t>Verify the product title</t>
+  </si>
+  <si>
+    <t>BENADRYL® Allergy ULTRATABS® Tablets with Allergy Relief and Diphenhydramine HCI 25 mg</t>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
   <si>
     <t>Verify the product rating</t>
@@ -61,6 +80,9 @@
     </r>
   </si>
   <si>
+    <t>overview</t>
+  </si>
+  <si>
     <t>Verify the product overview</t>
   </si>
   <si>
@@ -75,19 +97,31 @@
     </r>
   </si>
   <si>
+    <t>Use BENADRYL® Allergy ULTRATABS® Tablets with 25 mg of diphenhydramine HCI, which are antihistamine allergy tablets, for effective relief from both indoor and outdoor allergies. Reduce symptoms related to hay fever or other upper respiratory allergies including runny nose, sneezing, itchy, watery eyes, and itchy nose or throat as well as symptoms of the common cold including sneezing and runny nose.</t>
+  </si>
+  <si>
     <t>expectedText</t>
   </si>
   <si>
+    <t>modalText</t>
+  </si>
+  <si>
     <t>Verify the "Write a Review" button</t>
   </si>
   <si>
     <t>Write a review</t>
   </si>
   <si>
+    <t>BENADRYL® Allergy ULTRATAB® Tablets</t>
+  </si>
+  <si>
     <t>Verify the "Buy Now" button</t>
   </si>
   <si>
     <t>BUY NOW</t>
+  </si>
+  <si>
+    <t>Benadryl Allergy Ultratabs Tablets, 48 Count</t>
   </si>
   <si>
     <t>jumpToHeading</t>
@@ -776,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -789,6 +823,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,32 +1149,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="25.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="31.4285714285714" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1149,12 +1196,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="29.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1167,10 +1215,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1182,31 +1230,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="10.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1218,31 +1273,37 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="23.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
@@ -1254,56 +1315,43 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="28.8857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2190476190476" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="9.85714285714286" customWidth="1"/>
+    <col min="3" max="3" width="63.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1311,9 +1359,75 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="28.8857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2190476190476" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1332,108 +1446,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
